--- a/ROIV.xlsx
+++ b/ROIV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C864DD09-0F41-4FBB-BDE6-E4A0F96C61D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F718DE3A-1326-4DC8-9382-931E501B1761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="78285" yWindow="1245" windowWidth="25035" windowHeight="19590" xr2:uid="{45344065-490D-4523-82A0-7681CC983293}"/>
+    <workbookView xWindow="73800" yWindow="405" windowWidth="29055" windowHeight="20460" xr2:uid="{45344065-490D-4523-82A0-7681CC983293}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="77">
   <si>
     <t>Price</t>
   </si>
@@ -264,6 +264,12 @@
   </si>
   <si>
     <t>Vivek</t>
+  </si>
+  <si>
+    <t>brepocitinib, ropsacitinib</t>
+  </si>
+  <si>
+    <t>PFE owns 25%</t>
   </si>
 </sst>
 </file>
@@ -407,19 +413,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -428,7 +432,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -747,7 +750,7 @@
   <dimension ref="B2:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -789,26 +792,23 @@
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6" t="s">
+      <c r="F3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
+      <c r="H3" s="6"/>
       <c r="J3" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="11">
         <v>695.87885900000003</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -825,37 +825,36 @@
       <c r="J4" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="11">
         <f>+K2*K3</f>
         <v>2365.9881206</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
+      <c r="H5" s="6"/>
       <c r="J5" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="11">
         <f>1942.215+3.953+10.301+301.287</f>
         <v>2257.7559999999999</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -863,24 +862,21 @@
       <c r="B6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
+      <c r="H6" s="6"/>
       <c r="J6" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="11">
         <f>383.72+33.304</f>
         <v>417.024</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -888,18 +884,14 @@
       <c r="B7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="7"/>
+      <c r="H7" s="6"/>
       <c r="J7" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="11">
         <f>+K4-K5+K6</f>
         <v>525.25612060000014</v>
       </c>
@@ -908,47 +900,33 @@
       <c r="B8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
+      <c r="H9" s="6"/>
       <c r="J9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="7"/>
+      <c r="H10" s="6"/>
       <c r="J10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="10"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J12" t="s">
@@ -1032,7 +1010,7 @@
       <c r="B19" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="12" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1052,6 +1030,12 @@
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
@@ -1102,7 +1086,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1162,7 +1146,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="13" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1189,7 +1173,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1231,7 +1215,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1261,7 +1245,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>44</v>
       </c>
     </row>

--- a/ROIV.xlsx
+++ b/ROIV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F718DE3A-1326-4DC8-9382-931E501B1761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FF799F-839E-44FC-80F0-1EDFFC8E6ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="73800" yWindow="405" windowWidth="29055" windowHeight="20460" xr2:uid="{45344065-490D-4523-82A0-7681CC983293}"/>
+    <workbookView xWindow="-50220" yWindow="1860" windowWidth="22875" windowHeight="18315" xr2:uid="{45344065-490D-4523-82A0-7681CC983293}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -152,9 +152,6 @@
     <t>MDS</t>
   </si>
   <si>
-    <t>Q222</t>
-  </si>
-  <si>
     <t>Proteovant</t>
   </si>
   <si>
@@ -270,12 +267,15 @@
   </si>
   <si>
     <t>PFE owns 25%</t>
+  </si>
+  <si>
+    <t>Q224</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -438,7 +438,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{C92AE284-653E-4B75-9480-EFC9325B761D}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -451,9 +453,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -491,7 +493,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -597,7 +599,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -739,7 +741,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -750,7 +752,7 @@
   <dimension ref="B2:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -788,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>3.4</v>
+        <v>12.01</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
@@ -806,10 +808,10 @@
         <v>1</v>
       </c>
       <c r="K3" s="11">
-        <v>695.87885900000003</v>
+        <v>739.52182400000004</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
@@ -827,7 +829,7 @@
       </c>
       <c r="K4" s="11">
         <f>+K2*K3</f>
-        <v>2365.9881206</v>
+        <v>8881.6571062399998</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
@@ -851,11 +853,11 @@
         <v>3</v>
       </c>
       <c r="K5" s="11">
-        <f>1942.215+3.953+10.301+301.287</f>
-        <v>2257.7559999999999</v>
+        <f>5678.514+262.979</f>
+        <v>5941.4930000000004</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
@@ -866,18 +868,18 @@
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H6" s="6"/>
       <c r="J6" t="s">
         <v>4</v>
       </c>
       <c r="K6" s="11">
-        <f>383.72+33.304</f>
-        <v>417.024</v>
+        <f>311.716+12</f>
+        <v>323.71600000000001</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
@@ -893,7 +895,7 @@
       </c>
       <c r="K7" s="11">
         <f>+K4-K5+K6</f>
-        <v>525.25612060000014</v>
+        <v>3263.8801062399993</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
@@ -930,7 +932,7 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K12">
         <v>129</v>
@@ -938,13 +940,13 @@
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K13">
         <v>99</v>
@@ -952,13 +954,13 @@
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K14">
         <v>88</v>
@@ -966,10 +968,10 @@
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K15">
         <v>99</v>
@@ -980,7 +982,7 @@
         <v>24</v>
       </c>
       <c r="J16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K16">
         <v>86</v>
@@ -988,10 +990,10 @@
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K17">
         <v>78</v>
@@ -1011,7 +1013,7 @@
         <v>23</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
@@ -1021,10 +1023,10 @@
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
@@ -1032,25 +1034,25 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" t="s">
         <v>75</v>
-      </c>
-      <c r="D22" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1087,7 +1089,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1100,10 +1102,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
         <v>45</v>
-      </c>
-      <c r="C3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1111,15 +1113,15 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
         <v>49</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1127,7 +1129,7 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1142,12 +1144,12 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1174,7 +1176,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1182,15 +1184,15 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1198,7 +1200,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1211,17 +1213,17 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1246,23 +1248,23 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
         <v>60</v>
-      </c>
-      <c r="C2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
         <v>58</v>
-      </c>
-      <c r="C3" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/ROIV.xlsx
+++ b/ROIV.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FF799F-839E-44FC-80F0-1EDFFC8E6ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33E758F-6DED-4DDD-9093-8CBB65A6B51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50220" yWindow="1860" windowWidth="22875" windowHeight="18315" xr2:uid="{45344065-490D-4523-82A0-7681CC983293}"/>
+    <workbookView xWindow="38240" yWindow="1770" windowWidth="21000" windowHeight="14530" activeTab="1" xr2:uid="{45344065-490D-4523-82A0-7681CC983293}"/>
   </bookViews>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Model" sheetId="2" r:id="rId2"/>
-    <sheet name="Vtama" sheetId="3" r:id="rId3"/>
-    <sheet name="brepocitinib" sheetId="4" r:id="rId4"/>
-    <sheet name="IP" sheetId="5" r:id="rId5"/>
+    <sheet name="Master" sheetId="6" r:id="rId1"/>
+    <sheet name="Main" sheetId="1" r:id="rId2"/>
+    <sheet name="Model" sheetId="2" r:id="rId3"/>
+    <sheet name="Vtama" sheetId="3" r:id="rId4"/>
+    <sheet name="brepocitinib" sheetId="4" r:id="rId5"/>
+    <sheet name="batoclimab" sheetId="7" r:id="rId6"/>
+    <sheet name="IP" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="86">
   <si>
     <t>Price</t>
   </si>
@@ -131,9 +133,6 @@
     <t>batoclimab</t>
   </si>
   <si>
-    <t>TED, MG</t>
-  </si>
-  <si>
     <t>RVT-2001</t>
   </si>
   <si>
@@ -269,7 +268,37 @@
     <t>PFE owns 25%</t>
   </si>
   <si>
-    <t>Q224</t>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>Founded</t>
+  </si>
+  <si>
+    <t>CIO: Mayukh Sukhatme</t>
+  </si>
+  <si>
+    <t>COO: Eric Venker</t>
+  </si>
+  <si>
+    <t>Sold to Organon</t>
+  </si>
+  <si>
+    <t>TED, MG, Graves, RA, MG, CIDP</t>
+  </si>
+  <si>
+    <t>batoclimab (IMVT-1402)</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>IMVT-</t>
+  </si>
+  <si>
+    <t>Competition</t>
+  </si>
+  <si>
+    <t>Vyvgart, Imaavy</t>
   </si>
 </sst>
 </file>
@@ -413,7 +442,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -432,6 +461,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -748,351 +779,404 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{847895D5-24E9-4443-A44E-71C1A258E07C}">
-  <dimension ref="B2:L25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A6A002B-45BC-4AEA-98A7-1BDE379F0C14}">
+  <dimension ref="B2:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>12.01</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="15" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="J3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="11">
-        <v>739.52182400000004</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="4"/>
-      <c r="J4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="11">
-        <f>+K2*K3</f>
-        <v>8881.6571062399998</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="J5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" s="11">
-        <f>5678.514+262.979</f>
-        <v>5941.4930000000004</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="J6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="11">
-        <f>311.716+12</f>
-        <v>323.71600000000001</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="J7" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="11">
-        <f>+K4-K5+K6</f>
-        <v>3263.8801062399993</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="5" t="s">
+      <c r="H2" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
         <v>34</v>
       </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="5"/>
-      <c r="H9" s="6"/>
-      <c r="J9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="5"/>
-      <c r="H10" s="6"/>
-      <c r="J10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="J12" t="s">
-        <v>61</v>
-      </c>
-      <c r="K12">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" t="s">
-        <v>67</v>
-      </c>
-      <c r="J13" t="s">
-        <v>62</v>
-      </c>
-      <c r="K13">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" t="s">
-        <v>69</v>
-      </c>
-      <c r="J14" t="s">
-        <v>63</v>
-      </c>
-      <c r="K14">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>66</v>
-      </c>
-      <c r="J15" t="s">
-        <v>71</v>
-      </c>
-      <c r="K15">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" t="s">
-        <v>72</v>
-      </c>
-      <c r="K16">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>39</v>
-      </c>
-      <c r="J17" t="s">
-        <v>73</v>
-      </c>
-      <c r="K17">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+      <c r="G4" t="s">
         <v>32</v>
       </c>
-      <c r="K18">
-        <f>SUM(K12:K17)</f>
-        <v>579</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>38</v>
+      <c r="H4" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" location="Vtama!A1" display="Vtama (tapinarof)" xr:uid="{8DD5F035-B5F5-4753-91DE-17DC8F94A954}"/>
+    <hyperlink ref="B2" location="Vtama!A1" display="Vtama (tapinarof)" xr:uid="{8DD5F035-B5F5-4753-91DE-17DC8F94A954}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{847895D5-24E9-4443-A44E-71C1A258E07C}">
+  <dimension ref="B2:L23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.54296875" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" customWidth="1"/>
+    <col min="3" max="3" width="19.90625" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" customWidth="1"/>
+    <col min="9" max="9" width="5.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>10.97</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="6"/>
+      <c r="J3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="11">
+        <v>713.54945799999996</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="J4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="11">
+        <f>+K2*K3</f>
+        <v>7827.6375542599999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="6"/>
+      <c r="J5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="11">
+        <f>1990.683+3155.825+290.04</f>
+        <v>5436.5479999999998</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="6"/>
+      <c r="J6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="11">
+        <v>0</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="6"/>
+      <c r="J7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="11">
+        <f>+K4-K5+K6</f>
+        <v>2391.0895542600001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+      <c r="J9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" t="s">
+        <v>60</v>
+      </c>
+      <c r="K14">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" t="s">
+        <v>61</v>
+      </c>
+      <c r="K15">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="13" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" t="s">
+        <v>70</v>
+      </c>
+      <c r="K17">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" t="s">
+        <v>71</v>
+      </c>
+      <c r="K18">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+      <c r="J19" t="s">
+        <v>72</v>
+      </c>
+      <c r="K19">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" t="s">
+        <v>74</v>
+      </c>
+      <c r="K20">
+        <f>SUM(K14:K19)</f>
+        <v>579</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22" t="s">
+        <v>76</v>
+      </c>
+      <c r="K22" s="16">
+        <v>41736</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909D665D-52FE-4DC0-812C-60FD94C5E5F0}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA7AE7E-A765-4A2C-A555-18BBD1A49A07}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -1100,56 +1184,56 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
         <v>44</v>
       </c>
-      <c r="C3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
         <v>48</v>
       </c>
-      <c r="C5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C10" s="13" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C10" s="13" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1160,7 +1244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{297E26BE-1991-4D4E-886F-F49985DFDB70}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -1168,42 +1252,42 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -1211,19 +1295,19 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C7" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1234,37 +1318,96 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F3D337-67E7-41BE-962C-2E34C859D8ED}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{4172C746-31A6-49F6-A132-00472FF76275}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046154AB-5A0F-4F40-B3C2-37802FBB750F}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
         <v>59</v>
       </c>
-      <c r="C2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
         <v>57</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
